--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E03723-8F83-447A-AE84-47D1E8B0A6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F5C94-5486-429E-90E8-23A8EAC2C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -37,12 +37,6 @@
     <t>PROMPT</t>
   </si>
   <si>
-    <t>EXAMPLE_HEADER</t>
-  </si>
-  <si>
-    <t>PAGE_COUNTER</t>
-  </si>
-  <si>
     <t>Seite {{page_no}} von {{num_pages}}</t>
   </si>
   <si>
@@ -52,12 +46,6 @@
     <t>WELCOME</t>
   </si>
   <si>
-    <t>Beispiel {{page_no}} von {{num_pages}}</t>
-  </si>
-  <si>
-    <t>Example {{page_no}} of {{num_pages}}</t>
-  </si>
-  <si>
     <t>EXAMPLE</t>
   </si>
   <si>
@@ -77,15 +65,6 @@
   </si>
   <si>
     <t>You will now read several series of words or short phrases. In some of these series, one element has a different rhythm from the others. Therefore, pay special attention to the stresses and accents of the words.&lt;br/&gt; Your task is to judge whether the row contains a rhythmically unsuitable element and, if so, to mark the corresponding element. To do this, simply click on the corresponding word.</t>
-  </si>
-  <si>
-    <t>Das war leider zu langsam. Versuchen Sie es nochmal!</t>
-  </si>
-  <si>
-    <t>This was too slow. Please try again!</t>
-  </si>
-  <si>
-    <t>EXAMPLE_FEEDBACK_TOO_SLOW</t>
   </si>
   <si>
     <t>EXAMPLE_FEEDBACK_INCORRECT</t>
@@ -113,27 +92,68 @@
     <t>START_MAIN_TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Das waren die Beispielsätze. &lt;br/&gt; &lt;strong&gt;Achtung - jetzt geht es richtig los!&lt;/b&gt;&lt;br/&gt;Zur Erinnerung: &lt;br/&gt;  “J”-Taste für wahre Aussagen drücken&lt;br/&gt; "F”-Taste für falsche Aussagen drücken&lt;br/&gt;
-Sie bekommen jetzt keine Rückmeldung mehr nach Ihrer Reaktion. 
+    <t>Willkommen zum Salzburger LeseScreening!</t>
+  </si>
+  <si>
+    <t>Sie haben {{num_correct}} von {{num_items}} Fragen in {{time}} s richtig beantwortet ({{perc_correct}}%).</t>
+  </si>
+  <si>
+    <t>You answered {{num_correct}} out of {{num_items}} questions in {{time}} s correctly ({{perc_correct}}%).</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS2</t>
+  </si>
+  <si>
+    <t>EXAMPLE_PAGE_HEADER</t>
+  </si>
+  <si>
+    <t>PAGE_HEADER</t>
+  </si>
+  <si>
+    <t>EXAMPLE_FEEDBACK_CORRECT</t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:green"&gt;Correct!&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:green"&gt;Richtig!&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:red"&gt;The answer was not correct.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es folgen jetzt einige Beispiele zur Übung. Nach jedem Satz bekommen Sie eine Rückmeldung, ob Sie richtig geantwortet haben.
 </t>
   </si>
   <si>
-    <t>Das war leider nicht richtig.</t>
-  </si>
-  <si>
-    <t>The answer was not correct.</t>
-  </si>
-  <si>
-    <t>Those were the sample sentences. &lt;br/&gt; &lt;strong&gt;Attention - here we go!&lt;/b&gt;&lt;br/&gt;As a reminder: &lt;br/&gt; Press the J" key for true statements&lt;br/&gt; ""F" key for false statements&lt;br/&gt;. You will now get no feedback after your response.</t>
-  </si>
-  <si>
-    <t>Willkommen zum Salzburger LeseScreening!</t>
-  </si>
-  <si>
-    <t>Sie haben {{num_correct}} von {{num_items}} Fragen in {{time}} s richtig beantwortet ({{perc_correct}}%).</t>
-  </si>
-  <si>
-    <t>You answered {{num_correct}} out of {{num_items}} questions in {{time}} s correctly ({{perc_correct}}%).</t>
+    <t>Those were the sample sentences. &lt;br/&gt; &lt;strong&gt;Attention - here we go!&lt;/strong&gt;You will now get no feedback after your response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das waren die Beispielsätze. &lt;br/&gt; &lt;strong&gt;Jetzt geht es richtig los!&lt;/strong&gt; &lt;br/&gt;Sie bekommen jetzt keine Rückmeldung mehr nach Ihrer Reaktion. 
+</t>
+  </si>
+  <si>
+    <t>KEY_CONTINUE</t>
+  </si>
+  <si>
+    <t>Weiter mit beliebiger Taste</t>
+  </si>
+  <si>
+    <t>Press any key to continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die “j”-Taste.\\
+ Bei **falschen** Aussagen drücken Sie bitte die “f”-Taste .\\Sie können am besten Ihre Zeigefinger für die “f”- und “j”-Tasten benutzen.\\ </t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:red"&gt;Das war leider nicht richtig.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es folgen jetzt einige Beispiele zur Übung.\\ Nach jedem Satz bekommen Sie eine Rückmeldung, ob Sie richtig geantwortet haben.
+</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,132 +1025,162 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F5C94-5486-429E-90E8-23A8EAC2C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED53B60-50B0-430C-8469-E7AEC7BB27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLS_dict" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>key</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Eine Beispielaufgabe</t>
   </si>
   <si>
-    <t>You will now read several series of words or short phrases. In some of these series, one element has a different rhythm from the others. Therefore, pay special attention to the stresses and accents of the words.&lt;br/&gt; Your task is to judge whether the row contains a rhythmically unsuitable element and, if so, to mark the corresponding element. To do this, simply click on the corresponding word.</t>
-  </si>
-  <si>
     <t>EXAMPLE_FEEDBACK_INCORRECT</t>
   </si>
   <si>
@@ -76,16 +73,6 @@
     <t>FEEDBACK</t>
   </si>
   <si>
-    <t>Salzburg Reading Screening (Berlin Version)</t>
-  </si>
-  <si>
-    <t>Salzburger LeseScreening (Berlin Version)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im Folgenden werden Ihnen Sätze präsentiert, die einfache Sachverhalte beschreiben. Der Inhalt der Sätze kann wahr oder falsch sein. Bitte entscheiden Sie so korrekt aber auch so schnell wie möglich, ob es sich um eine wahre und damit sinnvolle oder um eine falsche und damit sinnlose Aussage handelt.
-</t>
-  </si>
-  <si>
     <t>Welcome to the Salzburg Reading Screening!</t>
   </si>
   <si>
@@ -114,9 +101,6 @@
   </si>
   <si>
     <t>&lt;span style = "color:green"&gt;Correct!&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span style = "color:green"&gt;Richtig!&lt;/span&gt;</t>
   </si>
   <si>
     <t>&lt;span style = "color:red"&gt;The answer was not correct.&lt;/span&gt;</t>
@@ -145,15 +129,35 @@
     <t>Press any key to continue</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die “j”-Taste.\\
- Bei **falschen** Aussagen drücken Sie bitte die “f”-Taste .\\Sie können am besten Ihre Zeigefinger für die “f”- und “j”-Tasten benutzen.\\ </t>
-  </si>
-  <si>
-    <t>&lt;span style = "color:red"&gt;Das war leider nicht richtig.&lt;/span&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Es folgen jetzt einige Beispiele zur Übung.\\ Nach jedem Satz bekommen Sie eine Rückmeldung, ob Sie richtig geantwortet haben.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Folgenden werden Ihnen Sätze präsentiert, die **einfache Sachverhalte** beschreiben. Der Inhalt der Sätze kann wahr oder falsch sein. Bitte entscheiden Sie **so korrekt** aber auch **so schnell** wie möglich, ob es sich um eine wahre und damit sinnvolle oder um eine falsche und damit sinnlose Aussage handelt.
+</t>
+  </si>
+  <si>
+    <t>In the following, you will be presented with sentences describing **simple facts**. The content of the sentences can be true or false. Please decide **as correctly** but also **as quickly** as possible whether it is a true and therefore meaningful statement or a false and therefore meaningless one.</t>
+  </si>
+  <si>
+    <t>For **true** statements, please press the **"J"-key** .\\
+ For **false** statements, please press the **"F"-key** .\\You can best use your index fingers for the "F"- and "J"-keys.\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **“J”-Taste**.\\
+ Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
+  </si>
+  <si>
+    <t>Lesetest</t>
+  </si>
+  <si>
+    <t>Reading Test</t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:green"&gt;richtige Antwort&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style = "color:red"&gt;falsche Antwort&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -637,13 +641,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1002,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,46 +1032,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,18 +1081,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1096,7 +1103,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1110,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,46 +1147,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED53B60-50B0-430C-8469-E7AEC7BB27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6F5F8-A85C-40C2-89C8-189B3BF2653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLS_dict" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -73,13 +73,7 @@
     <t>FEEDBACK</t>
   </si>
   <si>
-    <t>Welcome to the Salzburg Reading Screening!</t>
-  </si>
-  <si>
     <t>START_MAIN_TEST</t>
-  </si>
-  <si>
-    <t>Willkommen zum Salzburger LeseScreening!</t>
   </si>
   <si>
     <t>Sie haben {{num_correct}} von {{num_items}} Fragen in {{time}} s richtig beantwortet ({{perc_correct}}%).</t>
@@ -148,16 +142,19 @@
  Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
   </si>
   <si>
-    <t>Lesetest</t>
-  </si>
-  <si>
-    <t>Reading Test</t>
-  </si>
-  <si>
     <t>&lt;span style = "color:green"&gt;richtige Antwort&lt;/span&gt;</t>
   </si>
   <si>
     <t>&lt;span style = "color:red"&gt;falsche Antwort&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Leseverständnistest</t>
+  </si>
+  <si>
+    <t>Willkommen zum Leseverständnistest!</t>
+  </si>
+  <si>
+    <t>Welcome to the Reading Comprehension Test!</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -596,6 +593,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,6 +663,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1009,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,11 +1049,11 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -1046,32 +1061,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,15 +1099,15 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1103,7 +1118,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1117,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,43 +1165,43 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6F5F8-A85C-40C2-89C8-189B3BF2653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD162E8-A3DD-4A6E-A537-991C4E61C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Im Folgenden werden Ihnen Sätze präsentiert, die **einfache Sachverhalte** beschreiben. Der Inhalt der Sätze kann wahr oder falsch sein. Bitte entscheiden Sie **so korrekt** aber auch **so schnell** wie möglich, ob es sich um eine wahre und damit sinnvolle oder um eine falsche und damit sinnlose Aussage handelt.
-</t>
-  </si>
-  <si>
     <t>In the following, you will be presented with sentences describing **simple facts**. The content of the sentences can be true or false. Please decide **as correctly** but also **as quickly** as possible whether it is a true and therefore meaningful statement or a false and therefore meaningless one.</t>
   </si>
   <si>
@@ -138,10 +134,6 @@
  For **false** statements, please press the **"F"-key** .\\You can best use your index fingers for the "F"- and "J"-keys.\\</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **“J”-Taste**.\\
- Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
-  </si>
-  <si>
     <t>&lt;span style = "color:green"&gt;richtige Antwort&lt;/span&gt;</t>
   </si>
   <si>
@@ -151,10 +143,18 @@
     <t>Leseverständnistest</t>
   </si>
   <si>
-    <t>Willkommen zum Leseverständnistest!</t>
-  </si>
-  <si>
     <t>Welcome to the Reading Comprehension Test!</t>
+  </si>
+  <si>
+    <t>Test: Leseverständnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Folgenden werden Ihnen Sätze präsentiert, die **einfache Sachverhalte** beschreiben. Der Inhalt der Sätze kann wahr oder falsch sein. Bitte entscheiden Sie **so korrekt** aber auch **so schnell** wie möglich, ob es sich um eine wahre oder um eine falsche Aussage handelt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **“J”-Taste** ("J" für "ja, wahr").\\
+ Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** ("F" für "falsch") .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,21 +1050,21 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,10 +1072,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1176,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>

--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD162E8-A3DD-4A6E-A537-991C4E61C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7202128-BDE0-4701-A42C-74D4FE8BF242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,11 +653,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1025,7 +1022,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,172 +1032,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7202128-BDE0-4701-A42C-74D4FE8BF242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B34F4D4-1448-4016-93BD-55927BA05CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <t>KEY_CONTINUE</t>
   </si>
   <si>
-    <t>Weiter mit beliebiger Taste</t>
-  </si>
-  <si>
-    <t>Press any key to continue</t>
-  </si>
-  <si>
     <t xml:space="preserve">Es folgen jetzt einige Beispiele zur Übung.\\ Nach jedem Satz bekommen Sie eine Rückmeldung, ob Sie richtig geantwortet haben.
 </t>
   </si>
@@ -155,6 +149,12 @@
   <si>
     <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **“J”-Taste** ("J" für "ja, wahr").\\
  Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** ("F" für "falsch") .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
+  </si>
+  <si>
+    <t>Continue with "F" or "J"</t>
+  </si>
+  <si>
+    <t>Weiter mit „F“ oder „J“</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -1058,10 +1058,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1069,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -1131,10 +1131,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -1196,14 +1196,15 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+      <c r="B16" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_raw/dicts/SLS_dict.xlsx
+++ b/data_raw/dicts/SLS_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\dicts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B34F4D4-1448-4016-93BD-55927BA05CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F115414-20D5-4186-9195-12B88F456648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLS_dict" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,6 @@
     <t>In the following, you will be presented with sentences describing **simple facts**. The content of the sentences can be true or false. Please decide **as correctly** but also **as quickly** as possible whether it is a true and therefore meaningful statement or a false and therefore meaningless one.</t>
   </si>
   <si>
-    <t>For **true** statements, please press the **"J"-key** .\\
- For **false** statements, please press the **"F"-key** .\\You can best use your index fingers for the "F"- and "J"-keys.\\</t>
-  </si>
-  <si>
     <t>&lt;span style = "color:green"&gt;richtige Antwort&lt;/span&gt;</t>
   </si>
   <si>
@@ -147,14 +143,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **“J”-Taste** ("J" für "ja, wahr").\\
- Bei **falschen** Aussagen drücken Sie bitte die **“F”-Taste** ("F" für "falsch") .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die “F”- und “J”-Taste**.\\ </t>
-  </si>
-  <si>
-    <t>Continue with "F" or "J"</t>
-  </si>
-  <si>
-    <t>Weiter mit „F“ oder „J“</t>
+    <t xml:space="preserve">Bei **wahren** Aussagen drücken Sie bitte die **J-Taste** (für „ja, wahr").\\
+ Bei **falschen** Aussagen drücken Sie bitte die **F-Taste** (für „falsch") .\\**Bitte legen Sie Ihre Zeigefinger jetzt auf die F- und J-Taste**.\\ </t>
+  </si>
+  <si>
+    <t>Weiter mit F oder J</t>
+  </si>
+  <si>
+    <t>Continue with F or J</t>
+  </si>
+  <si>
+    <t>For **true** statements, please press the **J-key** .\\
+ For **false** statements, please press the **F-key** .\\You can best use your index fingers for the F and J keys.\\</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1069,10 +1069,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -1197,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
